--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Hgf-Met.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Hgf-Met.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Met</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>10.9460426141671</v>
+        <v>8.265822</v>
       </c>
       <c r="H2">
-        <v>10.9460426141671</v>
+        <v>24.797466</v>
       </c>
       <c r="I2">
-        <v>0.3584348829121724</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="J2">
-        <v>0.3584348829121724</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.965402633644852</v>
+        <v>1.655851666666667</v>
       </c>
       <c r="N2">
-        <v>0.965402633644852</v>
+        <v>4.967555</v>
       </c>
       <c r="O2">
-        <v>0.02295289496531967</v>
+        <v>0.03628213169899143</v>
       </c>
       <c r="P2">
-        <v>0.02295289496531967</v>
+        <v>0.03628213169899143</v>
       </c>
       <c r="Q2">
-        <v>10.5673383677057</v>
+        <v>13.68697513507</v>
       </c>
       <c r="R2">
-        <v>10.5673383677057</v>
+        <v>123.18277621563</v>
       </c>
       <c r="S2">
-        <v>0.008227118219389748</v>
+        <v>0.007555168929597659</v>
       </c>
       <c r="T2">
-        <v>0.008227118219389748</v>
+        <v>0.007555168929597659</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>10.9460426141671</v>
+        <v>8.265822</v>
       </c>
       <c r="H3">
-        <v>10.9460426141671</v>
+        <v>24.797466</v>
       </c>
       <c r="I3">
-        <v>0.3584348829121724</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="J3">
-        <v>0.3584348829121724</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.41561530186034</v>
+        <v>1.416382666666667</v>
       </c>
       <c r="N3">
-        <v>1.41561530186034</v>
+        <v>4.249148</v>
       </c>
       <c r="O3">
-        <v>0.03365690977268751</v>
+        <v>0.03103501568568562</v>
       </c>
       <c r="P3">
-        <v>0.03365690977268751</v>
+        <v>0.03103501568568562</v>
       </c>
       <c r="Q3">
-        <v>15.4953854194303</v>
+        <v>11.707567006552</v>
       </c>
       <c r="R3">
-        <v>15.4953854194303</v>
+        <v>105.368103058968</v>
       </c>
       <c r="S3">
-        <v>0.0120638105135588</v>
+        <v>0.006462541621957286</v>
       </c>
       <c r="T3">
-        <v>0.0120638105135588</v>
+        <v>0.006462541621957287</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>10.9460426141671</v>
+        <v>8.265822</v>
       </c>
       <c r="H4">
-        <v>10.9460426141671</v>
+        <v>24.797466</v>
       </c>
       <c r="I4">
-        <v>0.3584348829121724</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="J4">
-        <v>0.3584348829121724</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.57298981575489</v>
+        <v>5.385314999999999</v>
       </c>
       <c r="N4">
-        <v>3.57298981575489</v>
+        <v>16.155945</v>
       </c>
       <c r="O4">
-        <v>0.08494948852951702</v>
+        <v>0.1180001276707882</v>
       </c>
       <c r="P4">
-        <v>0.08494948852951702</v>
+        <v>0.1180001276707882</v>
       </c>
       <c r="Q4">
-        <v>39.11009878323808</v>
+        <v>44.51405520392999</v>
       </c>
       <c r="R4">
-        <v>39.11009878323808</v>
+        <v>400.62649683537</v>
       </c>
       <c r="S4">
-        <v>0.03044885997452636</v>
+        <v>0.0245716240066368</v>
       </c>
       <c r="T4">
-        <v>0.03044885997452636</v>
+        <v>0.0245716240066368</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>10.9460426141671</v>
+        <v>8.265822</v>
       </c>
       <c r="H5">
-        <v>10.9460426141671</v>
+        <v>24.797466</v>
       </c>
       <c r="I5">
-        <v>0.3584348829121724</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="J5">
-        <v>0.3584348829121724</v>
+        <v>0.2082338764513023</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.1061609160698</v>
+        <v>37.180664</v>
       </c>
       <c r="N5">
-        <v>36.1061609160698</v>
+        <v>111.541992</v>
       </c>
       <c r="O5">
-        <v>0.8584407067324759</v>
+        <v>0.8146827249445348</v>
       </c>
       <c r="P5">
-        <v>0.8584407067324759</v>
+        <v>0.8146827249445348</v>
       </c>
       <c r="Q5">
-        <v>395.2195760212746</v>
+        <v>307.328750465808</v>
       </c>
       <c r="R5">
-        <v>395.2195760212746</v>
+        <v>2765.958754192272</v>
       </c>
       <c r="S5">
-        <v>0.3076950942046975</v>
+        <v>0.1696445418931105</v>
       </c>
       <c r="T5">
-        <v>0.3076950942046975</v>
+        <v>0.1696445418931105</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.9651248781211</v>
+        <v>11.28595333333333</v>
       </c>
       <c r="H6">
-        <v>18.9651248781211</v>
+        <v>33.85786</v>
       </c>
       <c r="I6">
-        <v>0.6210246529011266</v>
+        <v>0.2843174958338682</v>
       </c>
       <c r="J6">
-        <v>0.6210246529011266</v>
+        <v>0.2843174958338682</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.965402633644852</v>
+        <v>1.655851666666667</v>
       </c>
       <c r="N6">
-        <v>0.965402633644852</v>
+        <v>4.967555</v>
       </c>
       <c r="O6">
-        <v>0.02295289496531967</v>
+        <v>0.03628213169899143</v>
       </c>
       <c r="P6">
-        <v>0.02295289496531967</v>
+        <v>0.03628213169899143</v>
       </c>
       <c r="Q6">
-        <v>18.30898150474161</v>
+        <v>18.68786463692222</v>
       </c>
       <c r="R6">
-        <v>18.30898150474161</v>
+        <v>168.1907817323</v>
       </c>
       <c r="S6">
-        <v>0.01425431362891367</v>
+        <v>0.01031564482817185</v>
       </c>
       <c r="T6">
-        <v>0.01425431362891367</v>
+        <v>0.01031564482817185</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>18.9651248781211</v>
+        <v>11.28595333333333</v>
       </c>
       <c r="H7">
-        <v>18.9651248781211</v>
+        <v>33.85786</v>
       </c>
       <c r="I7">
-        <v>0.6210246529011266</v>
+        <v>0.2843174958338682</v>
       </c>
       <c r="J7">
-        <v>0.6210246529011266</v>
+        <v>0.2843174958338682</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.41561530186034</v>
+        <v>1.416382666666667</v>
       </c>
       <c r="N7">
-        <v>1.41561530186034</v>
+        <v>4.249148</v>
       </c>
       <c r="O7">
-        <v>0.03365690977268751</v>
+        <v>0.03103501568568562</v>
       </c>
       <c r="P7">
-        <v>0.03365690977268751</v>
+        <v>0.03103501568568562</v>
       </c>
       <c r="Q7">
-        <v>26.84732097916044</v>
+        <v>15.98522867814222</v>
       </c>
       <c r="R7">
-        <v>26.84732097916044</v>
+        <v>143.86705810328</v>
       </c>
       <c r="S7">
-        <v>0.0209017707093078</v>
+        <v>0.008823797942918956</v>
       </c>
       <c r="T7">
-        <v>0.0209017707093078</v>
+        <v>0.008823797942918958</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>18.9651248781211</v>
+        <v>11.28595333333333</v>
       </c>
       <c r="H8">
-        <v>18.9651248781211</v>
+        <v>33.85786</v>
       </c>
       <c r="I8">
-        <v>0.6210246529011266</v>
+        <v>0.2843174958338682</v>
       </c>
       <c r="J8">
-        <v>0.6210246529011266</v>
+        <v>0.2843174958338682</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.57298981575489</v>
+        <v>5.385314999999999</v>
       </c>
       <c r="N8">
-        <v>3.57298981575489</v>
+        <v>16.155945</v>
       </c>
       <c r="O8">
-        <v>0.08494948852951702</v>
+        <v>0.1180001276707882</v>
       </c>
       <c r="P8">
-        <v>0.08494948852951702</v>
+        <v>0.1180001276707882</v>
       </c>
       <c r="Q8">
-        <v>67.76219804404639</v>
+        <v>60.7784137753</v>
       </c>
       <c r="R8">
-        <v>67.76219804404639</v>
+        <v>547.0057239777</v>
       </c>
       <c r="S8">
-        <v>0.05275572662817155</v>
+        <v>0.03354950080743523</v>
       </c>
       <c r="T8">
-        <v>0.05275572662817155</v>
+        <v>0.03354950080743523</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>18.9651248781211</v>
+        <v>11.28595333333333</v>
       </c>
       <c r="H9">
-        <v>18.9651248781211</v>
+        <v>33.85786</v>
       </c>
       <c r="I9">
-        <v>0.6210246529011266</v>
+        <v>0.2843174958338682</v>
       </c>
       <c r="J9">
-        <v>0.6210246529011266</v>
+        <v>0.2843174958338682</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>36.1061609160698</v>
+        <v>37.180664</v>
       </c>
       <c r="N9">
-        <v>36.1061609160698</v>
+        <v>111.541992</v>
       </c>
       <c r="O9">
-        <v>0.8584407067324759</v>
+        <v>0.8146827249445348</v>
       </c>
       <c r="P9">
-        <v>0.8584407067324759</v>
+        <v>0.8146827249445348</v>
       </c>
       <c r="Q9">
-        <v>684.757850642799</v>
+        <v>419.6192388063467</v>
       </c>
       <c r="R9">
-        <v>684.757850642799</v>
+        <v>3776.57314925712</v>
       </c>
       <c r="S9">
-        <v>0.5331128419347336</v>
+        <v>0.2316285522553422</v>
       </c>
       <c r="T9">
-        <v>0.5331128419347336</v>
+        <v>0.2316285522553422</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.627273758836396</v>
+        <v>19.51551966666667</v>
       </c>
       <c r="H10">
-        <v>0.627273758836396</v>
+        <v>58.546559</v>
       </c>
       <c r="I10">
-        <v>0.02054046418670096</v>
+        <v>0.4916380138783083</v>
       </c>
       <c r="J10">
-        <v>0.02054046418670096</v>
+        <v>0.4916380138783083</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.965402633644852</v>
+        <v>1.655851666666667</v>
       </c>
       <c r="N10">
-        <v>0.965402633644852</v>
+        <v>4.967555</v>
       </c>
       <c r="O10">
-        <v>0.02295289496531967</v>
+        <v>0.03628213169899143</v>
       </c>
       <c r="P10">
-        <v>0.02295289496531967</v>
+        <v>0.03628213169899143</v>
       </c>
       <c r="Q10">
-        <v>0.6055717387969625</v>
+        <v>32.31480576591611</v>
       </c>
       <c r="R10">
-        <v>0.6055717387969625</v>
+        <v>290.833251893245</v>
       </c>
       <c r="S10">
-        <v>0.0004714631170162575</v>
+        <v>0.01783767516776336</v>
       </c>
       <c r="T10">
-        <v>0.0004714631170162575</v>
+        <v>0.01783767516776336</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.627273758836396</v>
+        <v>19.51551966666667</v>
       </c>
       <c r="H11">
-        <v>0.627273758836396</v>
+        <v>58.546559</v>
       </c>
       <c r="I11">
-        <v>0.02054046418670096</v>
+        <v>0.4916380138783083</v>
       </c>
       <c r="J11">
-        <v>0.02054046418670096</v>
+        <v>0.4916380138783083</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.41561530186034</v>
+        <v>1.416382666666667</v>
       </c>
       <c r="N11">
-        <v>1.41561530186034</v>
+        <v>4.249148</v>
       </c>
       <c r="O11">
-        <v>0.03365690977268751</v>
+        <v>0.03103501568568562</v>
       </c>
       <c r="P11">
-        <v>0.03365690977268751</v>
+        <v>0.03103501568568562</v>
       </c>
       <c r="Q11">
-        <v>0.8879783314642548</v>
+        <v>27.64144378685911</v>
       </c>
       <c r="R11">
-        <v>0.8879783314642548</v>
+        <v>248.772994081732</v>
       </c>
       <c r="S11">
-        <v>0.0006913285498209134</v>
+        <v>0.01525799347239262</v>
       </c>
       <c r="T11">
-        <v>0.0006913285498209134</v>
+        <v>0.01525799347239262</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.627273758836396</v>
+        <v>19.51551966666667</v>
       </c>
       <c r="H12">
-        <v>0.627273758836396</v>
+        <v>58.546559</v>
       </c>
       <c r="I12">
-        <v>0.02054046418670096</v>
+        <v>0.4916380138783083</v>
       </c>
       <c r="J12">
-        <v>0.02054046418670096</v>
+        <v>0.4916380138783083</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.57298981575489</v>
+        <v>5.385314999999999</v>
       </c>
       <c r="N12">
-        <v>3.57298981575489</v>
+        <v>16.155945</v>
       </c>
       <c r="O12">
-        <v>0.08494948852951702</v>
+        <v>0.1180001276707882</v>
       </c>
       <c r="P12">
-        <v>0.08494948852951702</v>
+        <v>0.1180001276707882</v>
       </c>
       <c r="Q12">
-        <v>2.241242752012732</v>
+        <v>105.097220793695</v>
       </c>
       <c r="R12">
-        <v>2.241242752012732</v>
+        <v>945.874987143255</v>
       </c>
       <c r="S12">
-        <v>0.001744901926819109</v>
+        <v>0.0580133484054531</v>
       </c>
       <c r="T12">
-        <v>0.001744901926819109</v>
+        <v>0.05801334840545311</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>19.51551966666667</v>
+      </c>
+      <c r="H13">
+        <v>58.546559</v>
+      </c>
+      <c r="I13">
+        <v>0.4916380138783083</v>
+      </c>
+      <c r="J13">
+        <v>0.4916380138783083</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>37.180664</v>
+      </c>
+      <c r="N13">
+        <v>111.541992</v>
+      </c>
+      <c r="O13">
+        <v>0.8146827249445348</v>
+      </c>
+      <c r="P13">
+        <v>0.8146827249445348</v>
+      </c>
+      <c r="Q13">
+        <v>725.5999795117253</v>
+      </c>
+      <c r="R13">
+        <v>6530.399815605528</v>
+      </c>
+      <c r="S13">
+        <v>0.4005289968326992</v>
+      </c>
+      <c r="T13">
+        <v>0.4005289968326992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6276006666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.882802</v>
+      </c>
+      <c r="I14">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="J14">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.655851666666667</v>
+      </c>
+      <c r="N14">
+        <v>4.967555</v>
+      </c>
+      <c r="O14">
+        <v>0.03628213169899143</v>
+      </c>
+      <c r="P14">
+        <v>0.03628213169899143</v>
+      </c>
+      <c r="Q14">
+        <v>1.039213609901111</v>
+      </c>
+      <c r="R14">
+        <v>9.35292248911</v>
+      </c>
+      <c r="S14">
+        <v>0.0005736427734585593</v>
+      </c>
+      <c r="T14">
+        <v>0.0005736427734585593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.6276006666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.882802</v>
+      </c>
+      <c r="I15">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="J15">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.416382666666667</v>
+      </c>
+      <c r="N15">
+        <v>4.249148</v>
+      </c>
+      <c r="O15">
+        <v>0.03103501568568562</v>
+      </c>
+      <c r="P15">
+        <v>0.03103501568568562</v>
+      </c>
+      <c r="Q15">
+        <v>0.8889227058551109</v>
+      </c>
+      <c r="R15">
+        <v>8.000304352695998</v>
+      </c>
+      <c r="S15">
+        <v>0.0004906826484167544</v>
+      </c>
+      <c r="T15">
+        <v>0.0004906826484167544</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.627273758836396</v>
-      </c>
-      <c r="H13">
-        <v>0.627273758836396</v>
-      </c>
-      <c r="I13">
-        <v>0.02054046418670096</v>
-      </c>
-      <c r="J13">
-        <v>0.02054046418670096</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>36.1061609160698</v>
-      </c>
-      <c r="N13">
-        <v>36.1061609160698</v>
-      </c>
-      <c r="O13">
-        <v>0.8584407067324759</v>
-      </c>
-      <c r="P13">
-        <v>0.8584407067324759</v>
-      </c>
-      <c r="Q13">
-        <v>22.64844727497487</v>
-      </c>
-      <c r="R13">
-        <v>22.64844727497487</v>
-      </c>
-      <c r="S13">
-        <v>0.01763277059304468</v>
-      </c>
-      <c r="T13">
-        <v>0.01763277059304468</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6276006666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.882802</v>
+      </c>
+      <c r="I16">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="J16">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.385314999999999</v>
+      </c>
+      <c r="N16">
+        <v>16.155945</v>
+      </c>
+      <c r="O16">
+        <v>0.1180001276707882</v>
+      </c>
+      <c r="P16">
+        <v>0.1180001276707882</v>
+      </c>
+      <c r="Q16">
+        <v>3.379827284209999</v>
+      </c>
+      <c r="R16">
+        <v>30.41844555789</v>
+      </c>
+      <c r="S16">
+        <v>0.001865654451263035</v>
+      </c>
+      <c r="T16">
+        <v>0.001865654451263035</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6276006666666666</v>
+      </c>
+      <c r="H17">
+        <v>1.882802</v>
+      </c>
+      <c r="I17">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="J17">
+        <v>0.01581061383652123</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>37.180664</v>
+      </c>
+      <c r="N17">
+        <v>111.541992</v>
+      </c>
+      <c r="O17">
+        <v>0.8146827249445348</v>
+      </c>
+      <c r="P17">
+        <v>0.8146827249445348</v>
+      </c>
+      <c r="Q17">
+        <v>23.33460951350933</v>
+      </c>
+      <c r="R17">
+        <v>210.011485621584</v>
+      </c>
+      <c r="S17">
+        <v>0.01288063396338288</v>
+      </c>
+      <c r="T17">
+        <v>0.01288063396338288</v>
       </c>
     </row>
   </sheetData>
